--- a/arsip/cpi-1.xlsx
+++ b/arsip/cpi-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7620"/>
+    <workbookView windowWidth="20490" windowHeight="8715"/>
   </bookViews>
   <sheets>
     <sheet name="CPI" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Template perhitungan CPI</t>
   </si>
@@ -63,6 +63,9 @@
     <t>Layanan</t>
   </si>
   <si>
+    <t>Alternatif terbaik</t>
+  </si>
+  <si>
     <t>Jenis kriteria</t>
   </si>
   <si>
@@ -81,6 +84,9 @@
     <t>CPI</t>
   </si>
   <si>
+    <t>Rank</t>
+  </si>
+  <si>
     <t>Alternatif</t>
   </si>
   <si>
@@ -94,9 +100,6 @@
   </si>
   <si>
     <t>Min</t>
-  </si>
-  <si>
-    <t>Alternatif terbaik</t>
   </si>
 </sst>
 </file>
@@ -109,7 +112,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,13 +139,6 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.5"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -648,152 +644,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -801,17 +797,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1158,10 +1153,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1183,7 +1178,7 @@
     <row r="2" ht="18.75" spans="1:1">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:9">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -1195,25 +1190,32 @@
         <v>3</v>
       </c>
       <c r="E3" s="4"/>
+      <c r="I3" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" s="4"/>
+      <c r="I4" s="9" t="str" cm="1">
+        <f t="array" ref="I4">INDEX(A9:A11,MATCH(I5,I9:I11,FALSE),1)</f>
+        <v>A3</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3">
         <v>0.4</v>
@@ -1225,6 +1227,10 @@
         <v>0.25</v>
       </c>
       <c r="E5" s="4"/>
+      <c r="I5">
+        <f>MAX(I9:I11)</f>
+        <v>1.61180555555556</v>
+      </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="4"/>
@@ -1236,22 +1242,25 @@
         <f>IF(C6=1,"==&gt; 👍 bobot valid","🚫 bobot tidak valid")</f>
         <v>==&gt; 👍 bobot valid</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="5:9">
-      <c r="E7" s="7"/>
-      <c r="F7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+    <row r="7" spans="5:10">
+      <c r="E7" s="4"/>
+      <c r="F7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
       <c r="I7" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" t="str">
         <f>B3</f>
@@ -1265,24 +1274,25 @@
         <f>D3</f>
         <v>Layanan</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="9" t="str">
+      <c r="E8" s="4"/>
+      <c r="F8" s="8" t="str">
         <f>B3</f>
         <v>Biaya</v>
       </c>
-      <c r="G8" s="9" t="str">
+      <c r="G8" s="8" t="str">
         <f>C3</f>
         <v>Kualitas</v>
       </c>
-      <c r="H8" s="9" t="str">
+      <c r="H8" s="8" t="str">
         <f>D3</f>
         <v>Layanan</v>
       </c>
       <c r="I8" s="11"/>
+      <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3">
         <v>50</v>
@@ -1294,26 +1304,30 @@
         <v>70</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="9">
-        <f>$B$13/B9</f>
+      <c r="F9" s="8">
+        <f>IF(B$4="benefit",B9/$B$17,$B$17/B9)</f>
         <v>0.8</v>
       </c>
-      <c r="G9" s="9">
-        <f>C9/$C$13</f>
-        <v>1.06666666666667</v>
-      </c>
-      <c r="H9" s="9">
-        <f>D9/$D$13</f>
-        <v>1</v>
+      <c r="G9" s="8">
+        <f>IF(C$4="benefit",C9/$B$17,$B$17/C9)</f>
+        <v>2</v>
+      </c>
+      <c r="H9" s="8">
+        <f>IF(D$4="benefit",D9/$B$17,$B$17/D9)</f>
+        <v>1.75</v>
       </c>
       <c r="I9" s="12">
         <f>F9*$B$5+G9*$C$5+H9*$D$5</f>
-        <v>0.943333333333333</v>
+        <v>1.4575</v>
+      </c>
+      <c r="J9" s="8">
+        <f t="shared" ref="J9:J11" si="0">RANK(I9,$I$9:$I$11)</f>
+        <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3">
         <v>40</v>
@@ -1325,26 +1339,30 @@
         <v>85</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="9">
-        <f>$B$13/B10</f>
+      <c r="F10" s="8">
+        <f>IF(B$4="benefit",B10/$B$17,$B$17/B10)</f>
         <v>1</v>
       </c>
-      <c r="G10" s="9">
-        <f>C10/$C$13</f>
-        <v>1</v>
-      </c>
-      <c r="H10" s="9">
-        <f>D10/$D$13</f>
-        <v>1.21428571428571</v>
+      <c r="G10" s="8">
+        <f>IF(C$4="benefit",C10/$B$17,$B$17/C10)</f>
+        <v>1.875</v>
+      </c>
+      <c r="H10" s="8">
+        <f>IF(D$4="benefit",D10/$B$17,$B$17/D10)</f>
+        <v>2.125</v>
       </c>
       <c r="I10" s="12">
         <f>F10*$B$5+G10*$C$5+H10*$D$5</f>
-        <v>1.05357142857143</v>
+        <v>1.5875</v>
+      </c>
+      <c r="J10" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3">
         <v>45</v>
@@ -1356,62 +1374,52 @@
         <v>75</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="9">
-        <f>$B$13/B11</f>
+      <c r="F11" s="8">
+        <f>IF(B$4="benefit",B11/$B$17,$B$17/B11)</f>
         <v>0.888888888888889</v>
       </c>
-      <c r="G11" s="9">
-        <f>C11/$C$13</f>
-        <v>1.2</v>
-      </c>
-      <c r="H11" s="9">
-        <f>D11/$D$13</f>
-        <v>1.07142857142857</v>
+      <c r="G11" s="8">
+        <f>IF(C$4="benefit",C11/$B$17,$B$17/C11)</f>
+        <v>2.25</v>
+      </c>
+      <c r="H11" s="8">
+        <f>IF(D$4="benefit",D11/$B$17,$B$17/D11)</f>
+        <v>1.875</v>
       </c>
       <c r="I11" s="12">
         <f>F11*$B$5+G11*$C$5+H11*$D$5</f>
-        <v>1.0434126984127</v>
+        <v>1.61180555555556</v>
+      </c>
+      <c r="J11" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
         <f>MIN(B9:B11)</f>
         <v>40</v>
       </c>
-      <c r="C13">
+      <c r="C17">
         <f>MIN(C9:C11)</f>
         <v>75</v>
       </c>
-      <c r="D13">
+      <c r="D17">
         <f>MIN(D9:D11)</f>
         <v>70</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="9:9">
-      <c r="I14" s="13" t="str" cm="1">
-        <f t="array" ref="I14">INDEX(A9:A11,MATCH(I15,I9:I11,FALSE),1)</f>
-        <v>A2</v>
-      </c>
-    </row>
-    <row r="15" spans="9:9">
-      <c r="I15">
-        <f>MAX(I9:I11)</f>
-        <v>1.05357142857143</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:D4 E4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:E4">
       <formula1>"cost,benefit"</formula1>
     </dataValidation>
   </dataValidations>

--- a/arsip/cpi-1.xlsx
+++ b/arsip/cpi-1.xlsx
@@ -1156,7 +1156,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1210,7 +1210,7 @@
       <c r="E4" s="4"/>
       <c r="I4" s="9" t="str" cm="1">
         <f t="array" ref="I4">INDEX(A9:A11,MATCH(I5,I9:I11,FALSE),1)</f>
-        <v>A3</v>
+        <v>A2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1229,7 +1229,7 @@
       <c r="E5" s="4"/>
       <c r="I5">
         <f>MAX(I9:I11)</f>
-        <v>1.61180555555556</v>
+        <v>1.05357142857143</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -1305,20 +1305,20 @@
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="8">
-        <f>IF(B$4="benefit",B9/$B$17,$B$17/B9)</f>
+        <f>IF(B$4="benefit",B9/B$17,B$17/B9)</f>
         <v>0.8</v>
       </c>
       <c r="G9" s="8">
-        <f>IF(C$4="benefit",C9/$B$17,$B$17/C9)</f>
-        <v>2</v>
+        <f>IF(C$4="benefit",C9/C$17,C$17/C9)</f>
+        <v>1.06666666666667</v>
       </c>
       <c r="H9" s="8">
-        <f>IF(D$4="benefit",D9/$B$17,$B$17/D9)</f>
-        <v>1.75</v>
+        <f>IF(D$4="benefit",D9/D$17,D$17/D9)</f>
+        <v>1</v>
       </c>
       <c r="I9" s="12">
         <f>F9*$B$5+G9*$C$5+H9*$D$5</f>
-        <v>1.4575</v>
+        <v>0.943333333333333</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ref="J9:J11" si="0">RANK(I9,$I$9:$I$11)</f>
@@ -1340,24 +1340,24 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="8">
-        <f>IF(B$4="benefit",B10/$B$17,$B$17/B10)</f>
+        <f>IF(B$4="benefit",B10/B$17,B$17/B10)</f>
         <v>1</v>
       </c>
       <c r="G10" s="8">
-        <f>IF(C$4="benefit",C10/$B$17,$B$17/C10)</f>
-        <v>1.875</v>
+        <f>IF(C$4="benefit",C10/C$17,C$17/C10)</f>
+        <v>1</v>
       </c>
       <c r="H10" s="8">
-        <f>IF(D$4="benefit",D10/$B$17,$B$17/D10)</f>
-        <v>2.125</v>
+        <f>IF(D$4="benefit",D10/D$17,D$17/D10)</f>
+        <v>1.21428571428571</v>
       </c>
       <c r="I10" s="12">
         <f>F10*$B$5+G10*$C$5+H10*$D$5</f>
-        <v>1.5875</v>
+        <v>1.05357142857143</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1375,24 +1375,24 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="8">
-        <f>IF(B$4="benefit",B11/$B$17,$B$17/B11)</f>
+        <f>IF(B$4="benefit",B11/B$17,B$17/B11)</f>
         <v>0.888888888888889</v>
       </c>
       <c r="G11" s="8">
-        <f>IF(C$4="benefit",C11/$B$17,$B$17/C11)</f>
-        <v>2.25</v>
+        <f>IF(C$4="benefit",C11/C$17,C$17/C11)</f>
+        <v>1.2</v>
       </c>
       <c r="H11" s="8">
-        <f>IF(D$4="benefit",D11/$B$17,$B$17/D11)</f>
-        <v>1.875</v>
+        <f>IF(D$4="benefit",D11/D$17,D$17/D11)</f>
+        <v>1.07142857142857</v>
       </c>
       <c r="I11" s="12">
         <f>F11*$B$5+G11*$C$5+H11*$D$5</f>
-        <v>1.61180555555556</v>
+        <v>1.0434126984127</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4">
